--- a/Pennoni Transportation.xlsx
+++ b/Pennoni Transportation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/DeltekMapScirpts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_A79CAEFDF5E13E454B327417BE10E31C4457B0E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36883DD6-0280-467D-A13A-04CCBF02C0E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="22">
   <si>
     <t>MOTHER MAY I</t>
   </si>
@@ -58,19 +52,22 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 4 - 0</t>
-  </si>
-  <si>
-    <t>1 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 1 - 0</t>
+    <t>4 - 3 - 0</t>
+  </si>
+  <si>
+    <t>5 - 2 - 0</t>
+  </si>
+  <si>
+    <t>3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>1 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -91,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,14 +152,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -209,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,29 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,7 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,42 +516,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -621,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -630,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -648,42 +586,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -691,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -700,25 +638,25 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,34 +664,34 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -788,7 +726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -796,69 +734,69 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,17 +804,17 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
@@ -887,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -899,165 +837,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C4">
+        <v>2.7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2.4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2.9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>3.3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4.4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>3.7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1069,202 +1001,195 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
+        <v>4.5</v>
+      </c>
+      <c r="D2">
+        <v>-0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3.9</v>
+      </c>
+      <c r="D3">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3.9</v>
+      </c>
+      <c r="D4">
+        <v>-1.1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>3.7</v>
       </c>
-      <c r="D2">
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3.6</v>
+      </c>
+      <c r="D6">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>3.4</v>
       </c>
-      <c r="D3">
-        <v>-0.60000000000000009</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D8">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>3.3</v>
       </c>
-      <c r="D4">
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D9">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2.7</v>
+      </c>
+      <c r="D10">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>3.2</v>
-      </c>
-      <c r="D5">
-        <v>-0.79999999999999982</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3.1</v>
-      </c>
-      <c r="D6">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>3.1</v>
-      </c>
-      <c r="D7">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>3.1</v>
-      </c>
-      <c r="D8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>2.9</v>
-      </c>
-      <c r="D9">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>2.4</v>
-      </c>
-      <c r="D10">
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1273,50 +1198,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1325,51 +1244,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1381,12 +1300,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1395,46 +1314,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>-10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10">
+        <v>-10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>-8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
